--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8CF5B0-2B1A-4C4F-AB48-14E36E3C8416}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C17A85-8364-48A8-BCD3-AEACF823EAB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="59">
   <si>
     <t>testname</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>Verify Search using the text from the product description</t>
+  </si>
+  <si>
+    <t>VerifyLogoutOptionFromMyAcountdrpdwn_TC001</t>
+  </si>
+  <si>
+    <t>Verify Logout functionality Using Logout Option From My account dropdown</t>
+  </si>
+  <si>
+    <t>VerifyLogoutOptionFromRightColumnOpt_TC002</t>
+  </si>
+  <si>
+    <t>Verify Logout functionality Using Logout Option From Right Column Option</t>
+  </si>
+  <si>
+    <t>Jayesh@21</t>
   </si>
 </sst>
 </file>
@@ -563,15 +578,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="84.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.6640625" customWidth="1"/>
     <col min="2" max="2" width="126.21875" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
     <col min="4" max="4" width="20.21875" customWidth="1"/>
@@ -765,6 +780,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -773,10 +822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +882,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>24</v>
@@ -1180,13 +1229,68 @@
         <v>12</v>
       </c>
     </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{CB57AA96-F49C-4059-85B8-CCE1966A6D45}"/>
-    <hyperlink ref="F2" r:id="rId2" display="Jayesh@21" xr:uid="{B03C5D9C-A626-4CC4-85CE-4651AB8C1AC6}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{B03C5D9C-A626-4CC4-85CE-4651AB8C1AC6}"/>
     <hyperlink ref="E3:E7" r:id="rId3" display="jayesh.gangurde21@gmail.com" xr:uid="{CF6BF727-1680-4EC0-A875-C22FA815DFB2}"/>
     <hyperlink ref="F3:F7" r:id="rId4" display="Jayesh@21" xr:uid="{A9864D28-5031-4934-A30B-20AAB0C41438}"/>
-    <hyperlink ref="E14" r:id="rId5" xr:uid="{A2052FF5-6550-4A52-9053-698038CD55D1}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{45A44C09-D2DC-49F9-83EC-E27C3DC11DB3}"/>
+    <hyperlink ref="E16" r:id="rId6" xr:uid="{E74C319D-A781-4B0D-B6D8-E2F1F7BF917F}"/>
+    <hyperlink ref="E17" r:id="rId7" xr:uid="{8DC65C1F-F8C7-433D-A6C1-A5C098667AB8}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{A2052FF5-6550-4A52-9053-698038CD55D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
